--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Enho-Gpr19.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Enho-Gpr19.xlsx
@@ -540,10 +540,10 @@
         <v>1.213455</v>
       </c>
       <c r="I2">
-        <v>0.8108235426184257</v>
+        <v>0.5202807690922467</v>
       </c>
       <c r="J2">
-        <v>0.8108235426184257</v>
+        <v>0.5202807690922467</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.296494</v>
+        <v>0.602545</v>
       </c>
       <c r="N2">
-        <v>3.889482</v>
+        <v>1.807635</v>
       </c>
       <c r="O2">
-        <v>0.2362271121470857</v>
+        <v>0.1012915997907189</v>
       </c>
       <c r="P2">
-        <v>0.2362271121470857</v>
+        <v>0.1012915997907189</v>
       </c>
       <c r="Q2">
-        <v>0.52441237559</v>
+        <v>0.243720414325</v>
       </c>
       <c r="R2">
-        <v>4.71971138031</v>
+        <v>2.193483728925</v>
       </c>
       <c r="S2">
-        <v>0.1915385039336202</v>
+        <v>0.05270007144169928</v>
       </c>
       <c r="T2">
-        <v>0.1915385039336202</v>
+        <v>0.05270007144169928</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>1.213455</v>
       </c>
       <c r="I3">
-        <v>0.8108235426184257</v>
+        <v>0.5202807690922467</v>
       </c>
       <c r="J3">
-        <v>0.8108235426184257</v>
+        <v>0.5202807690922467</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>7.18881</v>
       </c>
       <c r="O3">
-        <v>0.436611308671461</v>
+        <v>0.402828040777877</v>
       </c>
       <c r="P3">
-        <v>0.436611308671461</v>
+        <v>0.4028280407778771</v>
       </c>
       <c r="Q3">
         <v>0.96925527095</v>
@@ -632,10 +632,10 @@
         <v>8.72329743855</v>
       </c>
       <c r="S3">
-        <v>0.354014728044261</v>
+        <v>0.2095836828678368</v>
       </c>
       <c r="T3">
-        <v>0.354014728044261</v>
+        <v>0.2095836828678369</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>1.213455</v>
       </c>
       <c r="I4">
-        <v>0.8108235426184257</v>
+        <v>0.5202807690922467</v>
       </c>
       <c r="J4">
-        <v>0.8108235426184257</v>
+        <v>0.5202807690922467</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.795573</v>
+        <v>2.949802666666667</v>
       </c>
       <c r="N4">
-        <v>5.386718999999999</v>
+        <v>8.849408</v>
       </c>
       <c r="O4">
-        <v>0.3271615791814533</v>
+        <v>0.495880359431404</v>
       </c>
       <c r="P4">
-        <v>0.3271615791814533</v>
+        <v>0.4958803594314041</v>
       </c>
       <c r="Q4">
-        <v>0.7262823449049999</v>
+        <v>1.193150931626667</v>
       </c>
       <c r="R4">
-        <v>6.536541104144999</v>
+        <v>10.73835838464</v>
       </c>
       <c r="S4">
-        <v>0.2652703106405446</v>
+        <v>0.2579970147827106</v>
       </c>
       <c r="T4">
-        <v>0.2652703106405445</v>
+        <v>0.2579970147827107</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.094372</v>
+        <v>0.372951</v>
       </c>
       <c r="H5">
-        <v>0.283116</v>
+        <v>1.118853</v>
       </c>
       <c r="I5">
-        <v>0.1891764573815743</v>
+        <v>0.4797192309077532</v>
       </c>
       <c r="J5">
-        <v>0.1891764573815743</v>
+        <v>0.4797192309077531</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.296494</v>
+        <v>0.602545</v>
       </c>
       <c r="N5">
-        <v>3.889482</v>
+        <v>1.807635</v>
       </c>
       <c r="O5">
-        <v>0.2362271121470857</v>
+        <v>0.1012915997907189</v>
       </c>
       <c r="P5">
-        <v>0.2362271121470857</v>
+        <v>0.1012915997907189</v>
       </c>
       <c r="Q5">
-        <v>0.122352731768</v>
+        <v>0.224719760295</v>
       </c>
       <c r="R5">
-        <v>1.101174585912</v>
+        <v>2.022477842655</v>
       </c>
       <c r="S5">
-        <v>0.04468860821346553</v>
+        <v>0.04859152834901959</v>
       </c>
       <c r="T5">
-        <v>0.04468860821346553</v>
+        <v>0.04859152834901959</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.094372</v>
+        <v>0.372951</v>
       </c>
       <c r="H6">
-        <v>0.283116</v>
+        <v>1.118853</v>
       </c>
       <c r="I6">
-        <v>0.1891764573815743</v>
+        <v>0.4797192309077532</v>
       </c>
       <c r="J6">
-        <v>0.1891764573815743</v>
+        <v>0.4797192309077531</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>7.18881</v>
       </c>
       <c r="O6">
-        <v>0.436611308671461</v>
+        <v>0.402828040777877</v>
       </c>
       <c r="P6">
-        <v>0.436611308671461</v>
+        <v>0.4028280407778771</v>
       </c>
       <c r="Q6">
-        <v>0.22614079244</v>
+        <v>0.89369129277</v>
       </c>
       <c r="R6">
-        <v>2.03526713196</v>
+        <v>8.043221634930001</v>
       </c>
       <c r="S6">
-        <v>0.0825965806272</v>
+        <v>0.1932443579100402</v>
       </c>
       <c r="T6">
-        <v>0.08259658062720002</v>
+        <v>0.1932443579100402</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.094372</v>
+        <v>0.372951</v>
       </c>
       <c r="H7">
-        <v>0.283116</v>
+        <v>1.118853</v>
       </c>
       <c r="I7">
-        <v>0.1891764573815743</v>
+        <v>0.4797192309077532</v>
       </c>
       <c r="J7">
-        <v>0.1891764573815743</v>
+        <v>0.4797192309077531</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.795573</v>
+        <v>2.949802666666667</v>
       </c>
       <c r="N7">
-        <v>5.386718999999999</v>
+        <v>8.849408</v>
       </c>
       <c r="O7">
-        <v>0.3271615791814533</v>
+        <v>0.495880359431404</v>
       </c>
       <c r="P7">
-        <v>0.3271615791814533</v>
+        <v>0.4958803594314041</v>
       </c>
       <c r="Q7">
-        <v>0.169451815156</v>
+        <v>1.100131854336</v>
       </c>
       <c r="R7">
-        <v>1.525066336404</v>
+        <v>9.901186689024001</v>
       </c>
       <c r="S7">
-        <v>0.06189126854090874</v>
+        <v>0.2378833446486933</v>
       </c>
       <c r="T7">
-        <v>0.06189126854090874</v>
+        <v>0.2378833446486934</v>
       </c>
     </row>
   </sheetData>
